--- a/municipal/ENG/Business Register/Number of active business entities registered in Georgia/Samegrelo-Zemo Svaneti/Mestia Municipality.xlsx
+++ b/municipal/ENG/Business Register/Number of active business entities registered in Georgia/Samegrelo-Zemo Svaneti/Mestia Municipality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\რეგისტრი - MAN\Register Eng\Number of active business entities registered in Georgia (per 1000 population)\Samegrelo-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Register 1000 persons Eng\1. Number of active business entities registered in Georgia (per 1000 population)\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C070E1C-F233-4D63-A52A-8908BA55108D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="315" windowWidth="13530" windowHeight="15600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mestia Municipality" sheetId="1" r:id="rId1"/>
@@ -29,13 +30,13 @@
     <t>Number of active business entities registered in Mestia Municipality (per 1000 population)</t>
   </si>
   <si>
-    <t>Active business entities</t>
+    <t>Number of entities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -75,7 +76,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -103,11 +104,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -119,13 +140,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,105 +429,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="13" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2">
         <v>2012</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>2013</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>2014</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>2015</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>2016</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>2017</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="2">
         <v>2018</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="3">
         <v>2019</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J3" s="3">
         <v>2020</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K3" s="3">
         <v>2021</v>
       </c>
+      <c r="L3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="8">
         <v>16.162453377538331</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="8">
         <v>18.800168990283058</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="8">
         <v>18.151118615449555</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="8">
         <v>24.963134611333473</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="8">
         <v>25.34707614640303</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="8">
         <v>28.388182104931136</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="8">
         <v>29.116995463656508</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="8">
         <v>47.245762711864408</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="8">
         <v>47.740023287816243</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="8">
         <v>56.706535668517724</v>
+      </c>
+      <c r="L4" s="8">
+        <v>77.309666381522661</v>
+      </c>
+      <c r="M4" s="8">
+        <v>78.909071309222227</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>